--- a/bases/INEGI/SCN/Cuentas/Gasto de consumo de gobierno general.xlsx
+++ b/bases/INEGI/SCN/Cuentas/Gasto de consumo de gobierno general.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIEP\Dropbox (CIEP)\BID SHCP\4.10.1 (BID-SHCP)\bases\INEGI\BIE\SCN\Cuentas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Cuentas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F97ECB-6346-4DB6-930A-DF2D26CCB6F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Gasto de consumo de gobierno ge" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Gasto_de_consumo_de_gobierno_general" localSheetId="0">'Gasto de consumo de gobierno ge'!$A$1:$V$24</definedName>
+    <definedName name="Gasto_de_consumo_de_gobierno_general" localSheetId="0">'Gasto de consumo de gobierno ge'!$A$1:$V$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\CIEP\Dropbox (CIEP)\BID SHCP\4.10.1 (BID-SHCP)\bases\INEGI\BIE\SCN\Cuentas\Gasto de consumo de gobierno general.IQY" name="Gasto de consumo de gobierno general" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" odcFile="D:\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Cuentas\Gasto de consumo de gobierno general.IQY" name="Gasto de consumo de gobierno general" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://www.inegi.gob.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,501226,501227,501228,501229,501230,501231,501232,501233,501234,501235,501236,501237,501238,501239,501240,501241,501242,501243,501244,501245,501246,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="31">
   <si>
     <t>Cuentas nacionales &gt; Cuentas de bienes y servicios, base 2013 &gt; A precios corrientes &gt; Gastos de consumo de gobierno general, por sector de actividad económica</t>
   </si>
@@ -141,7 +142,7 @@
   </si>
   <si>
     <r>
-      <t>2016</t>
+      <t>2017</t>
     </r>
     <r>
       <rPr>
@@ -153,7 +154,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>r/</t>
+      <t>p/</t>
     </r>
   </si>
   <si>
@@ -172,11 +173,11 @@
     </r>
   </si>
   <si>
-    <t>Cifras revisadas:</t>
+    <t>Cifras preliminares:</t>
   </si>
   <si>
     <r>
-      <t>r/</t>
+      <t>p/</t>
     </r>
     <r>
       <rPr>
@@ -186,7 +187,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2016</t>
+      <t xml:space="preserve"> A partir de 2017</t>
     </r>
   </si>
   <si>
@@ -205,13 +206,13 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 16/08/2018 16:06:32</t>
+    <t>Fecha de consulta: 21/11/2018 18:07:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -756,27 +757,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -836,7 +837,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -895,7 +896,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -907,7 +908,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -924,9 +925,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -954,14 +955,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -989,6 +1007,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1141,39 +1176,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="74.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="67.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="80.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1234,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1225,7 +1260,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1293,7 +1328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2003</v>
       </c>
@@ -1361,7 +1396,7 @@
         <v>418809.07500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2004</v>
       </c>
@@ -1429,7 +1464,7 @@
         <v>448508.25099999999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2005</v>
       </c>
@@ -1497,7 +1532,7 @@
         <v>486953.00599999999</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2006</v>
       </c>
@@ -1565,7 +1600,7 @@
         <v>540205.43500000006</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2007</v>
       </c>
@@ -1633,7 +1668,7 @@
         <v>595010.48</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
@@ -1701,7 +1736,7 @@
         <v>648792.61600000004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2009</v>
       </c>
@@ -1769,7 +1804,7 @@
         <v>723207.38800000004</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2010</v>
       </c>
@@ -1837,7 +1872,7 @@
         <v>788147.196</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>2011</v>
       </c>
@@ -1905,7 +1940,7 @@
         <v>857221.76699999999</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2012</v>
       </c>
@@ -1973,7 +2008,7 @@
         <v>941945.33700000006</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2013</v>
       </c>
@@ -2041,7 +2076,7 @@
         <v>945847.45200000005</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
@@ -2109,7 +2144,7 @@
         <v>1028103.997</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -2177,129 +2212,171 @@
         <v>1094453.4909999999</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2417582.9330000002</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13300.776</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3331.2750000000001</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1017.38</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5557.4129999999996</v>
+      </c>
+      <c r="M17" s="1">
+        <v>231.614</v>
+      </c>
+      <c r="N17" s="1">
+        <v>26994.774000000001</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>691585.38899999997</v>
+      </c>
+      <c r="R17" s="1">
+        <v>500725.15399999998</v>
+      </c>
+      <c r="S17" s="1">
+        <v>11941.722</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="7">
+        <v>1165637.2709999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="9">
-        <v>2430037.9470000002</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="9">
-        <v>13300.776</v>
-      </c>
-      <c r="G17" s="9">
-        <v>3331.2750000000001</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1017.38</v>
-      </c>
-      <c r="L17" s="9">
-        <v>5557.4129999999996</v>
-      </c>
-      <c r="M17" s="9">
-        <v>231.614</v>
-      </c>
-      <c r="N17" s="9">
-        <v>26994.774000000001</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>702653.245</v>
-      </c>
-      <c r="R17" s="9">
-        <v>498219.22899999999</v>
-      </c>
-      <c r="S17" s="9">
-        <v>11941.722</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="V17" s="10">
-        <v>1169530.3540000001</v>
+      <c r="B18" s="9">
+        <v>2572774.9959999998</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="9">
+        <v>13496.808000000001</v>
+      </c>
+      <c r="G18" s="9">
+        <v>3254.924</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="9">
+        <v>943.50800000000004</v>
+      </c>
+      <c r="L18" s="9">
+        <v>5788.5469999999996</v>
+      </c>
+      <c r="M18" s="9">
+        <v>132.571</v>
+      </c>
+      <c r="N18" s="9">
+        <v>27398.402999999998</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>732031.61499999999</v>
+      </c>
+      <c r="R18" s="9">
+        <v>532527.02500000002</v>
+      </c>
+      <c r="S18" s="9">
+        <v>11330.206</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="10">
+        <v>1249144.459</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="19" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
     </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2323,9 +2400,9 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2349,27 +2426,53 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B24" s="12"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A18:V18"/>
     <mergeCell ref="A19:V19"/>
     <mergeCell ref="A20:V20"/>
     <mergeCell ref="A21:V21"/>
+    <mergeCell ref="A22:V22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
